--- a/12 Risk Register.xlsx
+++ b/12 Risk Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitrepos\NSE_new_product_launch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C6D7B-ABBA-4AFE-B4F3-50A5CF15FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5146E137-106C-4B36-9886-CD10AF8ECA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1550,6 +1550,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100049492CEE1B79845904FC81479065038" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30d08b8c64ea6b49d0e84810b9a5bf36">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da3b788b-8eed-43eb-a37b-136c1bb77ed7" xmlns:ns3="af6e64c5-6280-4e1f-9237-04dc7c7b4640" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08926572e143bc1c3b9ac33b78fb73ab" ns2:_="" ns3:_="">
     <xsd:import namespace="da3b788b-8eed-43eb-a37b-136c1bb77ed7"/>
@@ -1748,15 +1757,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1769,6 +1769,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE04DC6-6615-4C55-8CB5-B1EB1BF9283D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{651276DA-64A8-466A-985C-912037C1E82A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1783,14 +1791,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE04DC6-6615-4C55-8CB5-B1EB1BF9283D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
